--- a/results/course_retention.xlsx
+++ b/results/course_retention.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,13 +435,14 @@
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -457,398 +458,436 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>1 Occurance Count</t>
+          <t>1 Occurrence Count</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>1 Percent Retention</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>2+ Count</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2+ percent retention</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>2+ Percent Retention</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>5+ Count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>5+ percent retention</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>5+ Percent Retention</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>10+ Count</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>10+ percent retention</t>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>10+ Percent Retention</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MATH BUS &amp; ECO I</t>
+          <t>ANALYSIS I</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6451612903225806</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1935483870967742</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06451612903225806</v>
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DISCRETE MATH I</t>
+          <t>ANALYSIS II</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1071428571428571</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CALCULUS II</t>
+          <t>ANALYTICAL TECHNIQUES</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4507042253521127</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2253521126760563</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09859154929577464</v>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BUS STAT</t>
+          <t>APPLIED LINEAR ALGEBRA</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2222222222222222</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELEMENTARY STATISTICS</t>
+          <t>ARCH I - CONSTRUCTION DOCUMENT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.025</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INT CAL W/ MULTIVAR AND SERIES</t>
+          <t>ASSEM LANG</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS MATHEMATICS</t>
+          <t>ASTRONOMY SLR SYS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5256410256410257</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.217948717948718</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08974358974358974</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CALCULUS I</t>
+          <t>BASIC LEADERSHIP</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4819277108433735</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1686746987951807</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04819277108433735</v>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CALCULUS III</t>
+          <t>BEGINNING JAPA II</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LINEAR ALGEBRA</t>
+          <t>BIOCHEMISTRY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0625</v>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENGINEERING CHEMISTRY</t>
+          <t>BUS STAT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INTRO TO INDUSTRIAL ENGR</t>
+          <t>BUSINESS FINANCE</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -860,29 +899,32 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENGINEERING GRAPHICS</t>
+          <t>CALC LIFE SCI II</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -891,246 +933,270 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INTRO PROB &amp; STATS</t>
+          <t>CALCULUS FOR LIFE SCIENCES I</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4375</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G15" t="n">
         <v>5</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.3125</v>
-      </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0625</v>
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MATH BUS &amp; ECO II</t>
+          <t>CALCULUS I</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4690265486725664</v>
+        <v>39</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2300884955752212</v>
+        <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1061946902654867</v>
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.04938271604938271</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELEMENTARY ALGEBRA</t>
+          <t>CALCULUS II</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4814814814814815</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>0.4776119402985075</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1481481481481481</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1044776119402985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SURVEY OF CONTEMPORARY MATH</t>
+          <t>CALCULUS III</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4444444444444444</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="G18" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.08333333333333333</v>
-      </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02777777777777778</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>COLLEGE ALGEBRA</t>
+          <t>CAP MATH FOR SECONDARY TCHRS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.52</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1733333333333333</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08</v>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CALCULUS FOR LIFE SCIENCES I</t>
+          <t>CIRCUITS AND DEVICES</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1923076923076923</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1153846153846154</v>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GENERAL CHEMISTRY I</t>
+          <t>CIRCUITS II</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PRIN OF AM GOV</t>
+          <t>CMPTR SYS SECURITY</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1139,88 +1205,97 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ANALYSIS I</t>
+          <t>COLLEGE ALGEBRA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>0.4676258992805755</v>
       </c>
       <c r="E23" t="n">
-        <v>0.875</v>
+        <v>74</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>0.5323741007194245</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0.1798561151079137</v>
       </c>
       <c r="I23" t="n">
-        <v>0.125</v>
+        <v>11</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.07913669064748201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FOURIER SERIES &amp; BOUN VAL PROB</t>
+          <t>COLLEGE STATISTICS &amp; ALGEBRA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MODERN ALGEBRA</t>
+          <t>COLLEGE WRITING I</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1232,17 +1307,20 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>STATICS</t>
+          <t>COLLEGE WRITING II</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -1251,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1263,29 +1341,32 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PROG FOR SCIENTISTS &amp; ENGINEER</t>
+          <t>COMPILER CONSTRCTN</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1294,91 +1375,100 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>COLLEGE STATISTICS &amp; ALGEBRA</t>
+          <t>COMPUTER ARCHITECT</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.4</v>
       </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DISCRETE MATHEMATICS II</t>
+          <t>COMPUTER ETHICS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2666666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OBJECT-ORIENTED DESIGN &amp; PRG</t>
+          <t>COMPUTING SYSTEMS FUNDAMENTALS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1387,26 +1477,29 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>STAT BEH SCI</t>
+          <t>DATA STRCTS &amp; ALGM</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1418,119 +1511,131 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORG CHEM I</t>
+          <t>DIFFEREN EQUAT</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORG CHEM LAB I</t>
+          <t>DISCRETE MATH I</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FUNCTIONAL BIOLOGY</t>
+          <t>DISCRETE MATHEMATICS II</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INTRO TO FIN ACC</t>
+          <t>E-BUSINESS</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1542,60 +1647,66 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FOUNDATNS OF CS II</t>
+          <t>ECONOMIC GEOG</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ACC IN ORG &amp; SOCTY</t>
+          <t>ELECTRICITY AND MAGNETISM</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1604,119 +1715,131 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF COMPUTER SCI I</t>
+          <t>ELECTRONICS II</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4444444444444444</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COLLEGE WRITING I</t>
+          <t>ELEMENTARY STATISTICS</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.025</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BEGINNING JAPA II</t>
+          <t>ENGINEERING CHEMISTRY</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORG DEVELOPMENT</t>
+          <t>ENGINEERING GRAPHICS</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1728,23 +1851,26 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LEADERSHIP &amp; PROF DEV</t>
+          <t>ENGINEERING STATISTICS</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1759,17 +1885,20 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PRINC OF MATH I</t>
+          <t>ENGINEERING THERMODYNAMICS</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -1778,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1790,29 +1919,32 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MGT OF ORGANIZATION</t>
+          <t>ENGR CHEM LAB</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1821,13 +1953,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LEGAL ENVIRONMENT OF BUSINESS</t>
+          <t>ENGR ECO ANALYSIS</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1837,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1852,54 +1987,60 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NUMERICAL ANALYSIS I</t>
+          <t>ETHICS &amp; SOCIETY</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ENGINEERING STATISTICS</t>
+          <t>EXERCISE PHYSIOLOGY</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1914,26 +2055,29 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INTRO TO ADVANCED MATHEMATICS</t>
+          <t>FINANCIAL ACCT AND REPORTING</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1945,60 +2089,66 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>STUDIES  IN APPLIED MATH</t>
+          <t>FOUNDATIONS OF COMPUTER SCI I</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MECHANICS</t>
+          <t>FOUNDATIONS OF PR WRITING</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2007,88 +2157,97 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GENERAL PHYSICS I</t>
+          <t>FOUNDATNS OF CS II</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GENERAL PHYSICS I LAB</t>
+          <t>FOURIER SERIES &amp; BOUN VAL PROB</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>COMPUTER ETHICS</t>
+          <t>FUNCT AMER GOVT</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2100,26 +2259,29 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INTERMED ZOOLOGY</t>
+          <t>FUNCTIONAL BIOLOGY</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2131,26 +2293,29 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO COMBINATORICS</t>
+          <t>GEN CHEM LAB I</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2162,100 +2327,112 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>APPLIED LINEAR ALGEBRA</t>
+          <t>GENERAL CHEMISTRY I</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.4</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>INFORMAL GEOMETRY</t>
+          <t>GENERAL PHYSICS I</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I57" t="n">
-        <v>0.25</v>
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DIFFEREN EQUAT</t>
+          <t>GENERAL PHYSICS I LAB</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2271,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2286,26 +2463,29 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>INTRO DATA MINING INFO RETRVL</t>
+          <t>IMAGE PROCESSING &amp; COMP VISION</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2317,122 +2497,134 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EXERCISE PHYSIOLOGY</t>
+          <t>INFORMAL GEOMETRY</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>INTRMED ALGEBRA</t>
+          <t>INT CAL W/ MULTIVAR AND SERIES</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E62" t="n">
-        <v>0.625</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G62" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>COMPUTER ARCHITECT</t>
+          <t>INTERMED ZOOLOGY</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DATA STRCTS &amp; ALGM</t>
+          <t>INTRO DATA MINING INFO RETRVL</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2441,13 +2633,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IMAGE PROCESSING &amp; COMP VISION</t>
+          <t>INTRO FINE ARTS</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2457,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2472,44 +2667,50 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PROJECT MGMT</t>
+          <t>INTRO PROB &amp; STATS</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0625</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MATERIALS ENGINEERING</t>
+          <t>INTRO SOCIOLOGY</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2519,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -2534,29 +2735,32 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CIRCUITS II</t>
+          <t>INTRO TO ADVANCED MATHEMATICS</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2565,23 +2769,26 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PSYCHOPATHOLOGY</t>
+          <t>INTRO TO BUSINESS</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -2596,29 +2803,32 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>UNIVERSITY SEMINAR</t>
+          <t>INTRO TO FIN ACC</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2627,29 +2837,32 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORGANISMAL BIOLOGY</t>
+          <t>INTRO TO INDUSTRIAL ENGR</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2658,29 +2871,32 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>E-BUSINESS</t>
+          <t>INTRODUCTION TO COMBINATORICS</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2689,26 +2905,29 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>STATISTICS FOR CJ</t>
+          <t>INTRODUCTION TO DIGITAL ME</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2720,13 +2939,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MONEY &amp; BANKING</t>
+          <t>INTRODUCTION TO PSYCHOLOGY</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2736,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -2751,54 +2973,60 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NUMBER SYSTEMS</t>
+          <t>INTRODUCTION TO STATISTICS</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="n">
         <v>0.5</v>
       </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INTRO TO BUSINESS</t>
+          <t>INTRODUCTION TO STATISTICS LAB</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -2813,75 +3041,84 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO STATISTICS</t>
+          <t>LEGAL ENVIRONMENT OF BUSINESS</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>COMPUTING SYSTEMS FUNDAMENTALS</t>
+          <t>LINEAR ALGEBRA</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3333333333333333</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0625</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INDEPENDENT STUDY</t>
+          <t>MANAGERIAL ECO</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2891,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -2906,13 +3143,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BASIC LEADERSHIP</t>
+          <t>MATERIALS ENGINEERING</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2922,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -2937,91 +3177,100 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MIL HIS OF US</t>
+          <t>MATH BUS &amp; ECO I</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO DIGITAL ME</t>
+          <t>MATH BUS &amp; ECO II</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CALC LIFE SCI II</t>
+          <t>MECHANICS</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3030,6 +3279,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -3061,26 +3313,29 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ELECTRONICS II</t>
+          <t>MGT OF ORGANIZATION</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3092,26 +3347,29 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ECONOMIC GEOG</t>
+          <t>MIL HIS OF US</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3123,29 +3381,32 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BUSINESS PROGRAMMING I</t>
+          <t>MODERN ALGEBRA</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3154,23 +3415,26 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FINANCIAL ACCT AND REPORTING</t>
+          <t>MONEY &amp; BANKING</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -3185,29 +3449,32 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF PR WRITING</t>
+          <t>NUMBER SYSTEMS</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -3216,54 +3483,60 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ARCH I - CONSTRUCTION DOCUMENT</t>
+          <t>NUMERICAL ANALYSIS I</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ETHICS &amp; SOCIETY</t>
+          <t>OBJECT-ORIENTED DESIGN &amp; PRG</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -3278,29 +3551,32 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORG CHEM II</t>
+          <t>ORG CHEM I</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -3309,26 +3585,29 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CAP MATH FOR SECONDARY TCHRS</t>
+          <t>ORG CHEM II</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3340,13 +3619,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOC WK RESEARCH</t>
+          <t>ORG CHEM LAB I</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3356,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -3371,29 +3653,32 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>COMPILER CONSTRCTN</t>
+          <t>ORG DEVELOPMENT</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3402,17 +3687,20 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ELECTRICITY AND MAGNETISM</t>
+          <t>ORGANISMAL BIO LAB</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -3421,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3433,13 +3721,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ENGR ECO ANALYSIS</t>
+          <t>ORGANISMAL BIOLOGY</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3449,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -3464,26 +3755,29 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLID STATE DEVICES</t>
+          <t>PHYS CHEM LAB</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3495,44 +3789,50 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ENGR CHEM LAB</t>
+          <t>PRE-CALCULUS MATHEMATICS</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.1014492753623188</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO PSYCHOLOGY</t>
+          <t>PRIN MICROECON</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3542,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -3557,23 +3857,26 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO STATISTICS LAB</t>
+          <t>PRIN OF AM GOV</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -3588,29 +3891,32 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GEN CHEM LAB I</t>
+          <t>PRINC OF MATH I</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -3619,13 +3925,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>INTRO SOCIOLOGY</t>
+          <t>PROG FOR SCIENTISTS &amp; ENGINEER</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3635,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -3650,26 +3959,29 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ANALYSIS II</t>
+          <t>PROJECT MGMT</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3681,26 +3993,29 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CMPTR SYS SECURITY</t>
+          <t>PSYCHOPATHOLOGY</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3712,13 +4027,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORGANISMAL BIO LAB</t>
+          <t>SOC WK RESEARCH</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3728,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -3743,29 +4061,32 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>COLLEGE WRITING II</t>
+          <t>SOLID STATE DEVICES</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3774,29 +4095,32 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PRIN MICROECON</t>
+          <t>STAT BEH SCI</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3805,29 +4129,32 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>FUNCT AMER GOVT</t>
+          <t>STATICS</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3836,13 +4163,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ASTRONOMY SLR SYS</t>
+          <t>STATISTICS FOR CJ</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3852,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3867,29 +4197,32 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ASSEM LANG</t>
+          <t>STUDIES  IN APPLIED MATH</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3898,44 +4231,50 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PHYS CHEM LAB</t>
+          <t>SURVEY OF CONTEMPORARY MATH</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ENGINEERING THERMODYNAMICS</t>
+          <t>UNIVERSITY SEMINAR</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3945,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -3960,224 +4299,44 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CIRCUITS AND DEVICES</t>
+          <t>All Courses</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>812</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0.5788177339901478</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>0.5480295566502463</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>0.2118226600985222</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>INTRO FINE ARTS</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>MANAGERIAL ECO</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>BIOCHEMISTRY</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>ANALYTICAL TECHNIQUES</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>BUSINESS FINANCE</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>All Courses</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>876</v>
-      </c>
-      <c r="C120" t="n">
-        <v>420</v>
-      </c>
-      <c r="D120" t="n">
-        <v>456</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.5205479452054794</v>
-      </c>
-      <c r="F120" t="n">
-        <v>189</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.2157534246575342</v>
-      </c>
-      <c r="H120" t="n">
-        <v>74</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.08447488584474885</v>
+        <v>68</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.08374384236453201</v>
       </c>
     </row>
   </sheetData>
